--- a/IP addresses.xlsx
+++ b/IP addresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Oleen\OneDrive\SkillStorm\Assignements\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB03EC8-FFF5-44F7-8AB9-0155E71AD971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EE821BB-A5DA-403A-9C35-8980FEF56E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="1530" windowWidth="21600" windowHeight="11295" xr2:uid="{D6B1968C-5889-4DC7-B313-D7EF11FACE87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D6B1968C-5889-4DC7-B313-D7EF11FACE87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Virtual Networks</t>
   </si>
@@ -145,16 +145,34 @@
     <t>10.0.3.5</t>
   </si>
   <si>
-    <t>10.0.0.1/16?</t>
-  </si>
-  <si>
-    <t>10.1.0.1/16?</t>
-  </si>
-  <si>
     <t>10.0.0.2 -&gt; 10.1.0.2</t>
   </si>
   <si>
     <t>10.1.0.2 -&gt; 10.0.0.2</t>
+  </si>
+  <si>
+    <t>Load Ballencer-Management</t>
+  </si>
+  <si>
+    <t>10.2.4.5</t>
+  </si>
+  <si>
+    <t>Primary to Secondary</t>
+  </si>
+  <si>
+    <t>Secondary to Primary</t>
+  </si>
+  <si>
+    <t>This virtual networks gateway</t>
+  </si>
+  <si>
+    <t>Use remotes virtual gateway</t>
+  </si>
+  <si>
+    <t>10.1.0.1/24?</t>
+  </si>
+  <si>
+    <t>10.0.0.1/24?</t>
   </si>
 </sst>
 </file>
@@ -548,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E25F34C-B21D-415C-8BB2-3860996F5447}">
-  <dimension ref="A2:F19"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,19 +580,21 @@
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -591,7 +611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -605,15 +625,27 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -627,7 +659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -638,7 +670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -649,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -660,7 +692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -671,7 +703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -682,7 +714,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -693,7 +725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -704,7 +736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -715,15 +747,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
